--- a/Code/Results/Cases/Case_3_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.94547452802978</v>
+        <v>19.46802728246466</v>
       </c>
       <c r="C2">
-        <v>18.68473398746315</v>
+        <v>10.33178790160724</v>
       </c>
       <c r="D2">
-        <v>4.142623839223005</v>
+        <v>6.801262432254918</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>34.00127375701715</v>
+        <v>36.29858851610221</v>
       </c>
       <c r="G2">
-        <v>2.072912755325505</v>
+        <v>3.683686426087322</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.84629121460511</v>
+        <v>28.89659979953459</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.449434885795752</v>
+        <v>10.534590121956</v>
       </c>
       <c r="M2">
-        <v>13.56796457628033</v>
+        <v>17.0089096745564</v>
       </c>
       <c r="N2">
-        <v>12.83649167998049</v>
+        <v>19.75516687194326</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.24860739433421</v>
+        <v>19.02707227529446</v>
       </c>
       <c r="C3">
-        <v>17.37715588529971</v>
+        <v>9.654239044558551</v>
       </c>
       <c r="D3">
-        <v>4.242605968312742</v>
+        <v>6.828634189735486</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.4647319061913</v>
+        <v>36.07150167452018</v>
       </c>
       <c r="G3">
-        <v>2.083706872887374</v>
+        <v>3.687538791747522</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.38507307750307</v>
+        <v>28.90435557035408</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.397632895311347</v>
+        <v>10.55001829051955</v>
       </c>
       <c r="M3">
-        <v>12.95974733818668</v>
+        <v>16.9379300108897</v>
       </c>
       <c r="N3">
-        <v>13.09957144034532</v>
+        <v>19.82548519306702</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.17540990278165</v>
+        <v>18.75679067686542</v>
       </c>
       <c r="C4">
-        <v>16.53423448846412</v>
+        <v>9.212527677963715</v>
       </c>
       <c r="D4">
-        <v>4.305228099338629</v>
+        <v>6.84623398843175</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.52508601475909</v>
+        <v>35.94281166093097</v>
       </c>
       <c r="G4">
-        <v>2.09048666236312</v>
+        <v>3.690026773236204</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.12133901020315</v>
+        <v>28.91627768399203</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.369106341831228</v>
+        <v>10.56094222412587</v>
       </c>
       <c r="M4">
-        <v>12.58176976600974</v>
+        <v>16.89796057029639</v>
       </c>
       <c r="N4">
-        <v>13.2641722297421</v>
+        <v>19.87062962820967</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.75319645823171</v>
+        <v>18.64693959545636</v>
       </c>
       <c r="C5">
-        <v>16.18049876096785</v>
+        <v>9.026048898148471</v>
       </c>
       <c r="D5">
-        <v>4.33106532630408</v>
+        <v>6.853606024353639</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.14348935203081</v>
+        <v>35.89310959121362</v>
       </c>
       <c r="G5">
-        <v>2.093290314559365</v>
+        <v>3.691071595794352</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.0186363540225</v>
+        <v>28.92293102162643</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.358287570001673</v>
+        <v>10.56575870501186</v>
       </c>
       <c r="M5">
-        <v>12.42678133041549</v>
+        <v>16.88259257622351</v>
       </c>
       <c r="N5">
-        <v>13.33205143245126</v>
+        <v>19.8895226060759</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.68246680740162</v>
+        <v>18.62872162339313</v>
       </c>
       <c r="C6">
-        <v>16.12113827978886</v>
+        <v>8.994692517986167</v>
       </c>
       <c r="D6">
-        <v>4.33537505378354</v>
+        <v>6.854842236961596</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.08021689867223</v>
+        <v>35.88502313510788</v>
       </c>
       <c r="G6">
-        <v>2.093758396571399</v>
+        <v>3.691246960539444</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.00186713352987</v>
+        <v>28.92414403668136</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.356539251485627</v>
+        <v>10.56658051656872</v>
       </c>
       <c r="M6">
-        <v>12.40099350999611</v>
+        <v>16.88009660463203</v>
       </c>
       <c r="N6">
-        <v>13.34337213241456</v>
+        <v>19.89268977880816</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.16975754097488</v>
+        <v>18.75530777688685</v>
       </c>
       <c r="C7">
-        <v>16.52950554784575</v>
+        <v>9.21003901009551</v>
       </c>
       <c r="D7">
-        <v>4.305575249298769</v>
+        <v>6.846332600007623</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.51993381040832</v>
+        <v>35.94213021926119</v>
       </c>
       <c r="G7">
-        <v>2.090524304807297</v>
+        <v>3.690040738609224</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.11993477346255</v>
+        <v>28.91636015353737</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.368957197399383</v>
+        <v>10.56100570343663</v>
       </c>
       <c r="M7">
-        <v>12.57968316302102</v>
+        <v>16.89774957330046</v>
       </c>
       <c r="N7">
-        <v>13.26508437973901</v>
+        <v>19.87088241466356</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.37120068640744</v>
+        <v>19.31599192322127</v>
       </c>
       <c r="C8">
-        <v>18.24209314361357</v>
+        <v>10.10349125469715</v>
       </c>
       <c r="D8">
-        <v>4.176846478900815</v>
+        <v>6.810535815624352</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.47088113735465</v>
+        <v>36.2180843399895</v>
       </c>
       <c r="G8">
-        <v>2.076604599477939</v>
+        <v>3.684989344391617</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.68315394395161</v>
+        <v>28.89778491488792</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.430881486698555</v>
+        <v>10.53960863145601</v>
       </c>
       <c r="M8">
-        <v>13.35928942620446</v>
+        <v>16.98369339749611</v>
       </c>
       <c r="N8">
-        <v>12.92658371506613</v>
+        <v>19.77900475549761</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.32155297337632</v>
+        <v>20.41181981585261</v>
       </c>
       <c r="C9">
-        <v>21.29073412966285</v>
+        <v>11.65249448763168</v>
       </c>
       <c r="D9">
-        <v>3.933886573115438</v>
+        <v>6.746612600277017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.31497095243411</v>
+        <v>36.84251350509209</v>
       </c>
       <c r="G9">
-        <v>2.05038758739962</v>
+        <v>3.676051086714601</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>22.94730871482514</v>
+        <v>28.91837531959694</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.579195113036111</v>
+        <v>10.50916009006898</v>
       </c>
       <c r="M9">
-        <v>14.84593693730516</v>
+        <v>17.18033400874974</v>
       </c>
       <c r="N9">
-        <v>12.28569828758373</v>
+        <v>19.61439719436638</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.98652679103782</v>
+        <v>21.20527104797931</v>
       </c>
       <c r="C10">
-        <v>23.35431337139528</v>
+        <v>12.66793702272968</v>
       </c>
       <c r="D10">
-        <v>3.760907949898474</v>
+        <v>6.703442866474825</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.14117703481364</v>
+        <v>37.34912003796833</v>
       </c>
       <c r="G10">
-        <v>2.031585432367194</v>
+        <v>3.670066452867681</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>23.98110157543447</v>
+        <v>28.96848282906466</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.705776640070081</v>
+        <v>10.4938038060541</v>
       </c>
       <c r="M10">
-        <v>16.18429192719639</v>
+        <v>17.34112217868768</v>
       </c>
       <c r="N10">
-        <v>11.82683202821551</v>
+        <v>19.50286736639504</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.1505619842079</v>
+        <v>21.56186811619664</v>
       </c>
       <c r="C11">
-        <v>24.25799284508915</v>
+        <v>13.10352495183613</v>
       </c>
       <c r="D11">
-        <v>3.683437493955573</v>
+        <v>6.684621503959236</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.42741395350917</v>
+        <v>37.58926392494389</v>
       </c>
       <c r="G11">
-        <v>2.023080797940237</v>
+        <v>3.667468723694017</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.47611305195445</v>
+        <v>28.99889903256187</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.76747629743506</v>
+        <v>10.48833950478884</v>
       </c>
       <c r="M11">
-        <v>16.804908608151</v>
+        <v>17.41761677983182</v>
       </c>
       <c r="N11">
-        <v>11.62028150497684</v>
+        <v>19.45415512471348</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.58471808578168</v>
+        <v>21.69613646259215</v>
       </c>
       <c r="C12">
-        <v>24.59545220685177</v>
+        <v>13.2647034380032</v>
       </c>
       <c r="D12">
-        <v>3.654287137727164</v>
+        <v>6.677611355393316</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>41.91471187122494</v>
+        <v>37.68152774696821</v>
       </c>
       <c r="G12">
-        <v>2.019862434965889</v>
+        <v>3.666502841019712</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.66730520119082</v>
+        <v>29.01151300622528</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.791458709825178</v>
+        <v>10.48648887457203</v>
       </c>
       <c r="M12">
-        <v>17.03630409354133</v>
+        <v>17.44704732796485</v>
       </c>
       <c r="N12">
-        <v>11.54235201713221</v>
+        <v>19.43599878981914</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.49150480306488</v>
+        <v>21.66725565171053</v>
       </c>
       <c r="C13">
-        <v>24.52298019523603</v>
+        <v>13.23015810376931</v>
       </c>
       <c r="D13">
-        <v>3.66055664941046</v>
+        <v>6.679115914110503</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>41.80974984258338</v>
+        <v>37.66159917022775</v>
       </c>
       <c r="G13">
-        <v>2.020555554718533</v>
+        <v>3.666710070325537</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.62595879238761</v>
+        <v>29.00874762801968</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.786265731280287</v>
+        <v>10.48687772286228</v>
       </c>
       <c r="M13">
-        <v>16.98662697174467</v>
+        <v>17.44068860781353</v>
       </c>
       <c r="N13">
-        <v>11.55912317989494</v>
+        <v>19.43989620226512</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.18641143915736</v>
+        <v>21.57293060893685</v>
       </c>
       <c r="C14">
-        <v>24.28584908858431</v>
+        <v>13.11686063559844</v>
       </c>
       <c r="D14">
-        <v>3.681035455703922</v>
+        <v>6.684042430100035</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.46749843005896</v>
+        <v>37.59682832935581</v>
       </c>
       <c r="G14">
-        <v>2.022816007939902</v>
+        <v>3.667388903427709</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.49176636241622</v>
+        <v>28.9999148301139</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.7694367975785</v>
+        <v>10.48818287284719</v>
       </c>
       <c r="M14">
-        <v>16.82401713793649</v>
+        <v>17.42002886254495</v>
       </c>
       <c r="N14">
-        <v>11.61386460001652</v>
+        <v>19.45265558709261</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.99867806046991</v>
+        <v>21.51504983302916</v>
       </c>
       <c r="C15">
-        <v>24.13999098339226</v>
+        <v>13.04697236137334</v>
       </c>
       <c r="D15">
-        <v>3.693604008080637</v>
+        <v>6.687075301976779</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.25789553951917</v>
+        <v>37.55732505628238</v>
       </c>
       <c r="G15">
-        <v>2.024200727819795</v>
+        <v>3.667807025797252</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.41006304151485</v>
+        <v>28.99464720013338</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.759209907199971</v>
+        <v>10.48901077442405</v>
       </c>
       <c r="M15">
-        <v>16.72394802259247</v>
+        <v>17.4074340059</v>
       </c>
       <c r="N15">
-        <v>11.64743186996218</v>
+        <v>19.46050880719386</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.90950795594968</v>
+        <v>21.18186674022035</v>
       </c>
       <c r="C16">
-        <v>23.29457494074118</v>
+        <v>12.63894185701067</v>
       </c>
       <c r="D16">
-        <v>3.765996083139715</v>
+        <v>6.704689291377819</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.05713979675313</v>
+        <v>37.33361537979275</v>
       </c>
       <c r="G16">
-        <v>2.032141808889696</v>
+        <v>3.670238720471294</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>23.94926420572894</v>
+        <v>28.96664845753676</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.701829431721679</v>
+        <v>10.49419150957799</v>
       </c>
       <c r="M16">
-        <v>16.14321715311218</v>
+        <v>17.33618897491421</v>
       </c>
       <c r="N16">
-        <v>11.84037216254633</v>
+        <v>19.50609145221951</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.22917648778945</v>
+        <v>20.97625200572912</v>
       </c>
       <c r="C17">
-        <v>22.76716135765135</v>
+        <v>12.38189482310079</v>
       </c>
       <c r="D17">
-        <v>3.810723557385713</v>
+        <v>6.715703838507177</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.32072996993647</v>
+        <v>37.19881137305419</v>
       </c>
       <c r="G17">
-        <v>2.037022599163249</v>
+        <v>3.671762347785747</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>23.67303570355327</v>
+        <v>28.95142466720072</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.667700528787658</v>
+        <v>10.49775925906116</v>
       </c>
       <c r="M17">
-        <v>15.7803254318483</v>
+        <v>17.29332810274559</v>
       </c>
       <c r="N17">
-        <v>11.95927450537586</v>
+        <v>19.53457240580034</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.83330359563889</v>
+        <v>20.85758649378352</v>
       </c>
       <c r="C18">
-        <v>22.46048796018817</v>
+        <v>12.23156760285278</v>
       </c>
       <c r="D18">
-        <v>3.836563239568227</v>
+        <v>6.72211601312569</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.89720561649006</v>
+        <v>37.12219154639579</v>
       </c>
       <c r="G18">
-        <v>2.039834794154799</v>
+        <v>3.672650442975233</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>23.51647166486606</v>
+        <v>28.94338584218347</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.648456302088743</v>
+        <v>10.49995454487652</v>
       </c>
       <c r="M18">
-        <v>15.56910898594385</v>
+        <v>17.26899224290236</v>
       </c>
       <c r="N18">
-        <v>12.02787164122733</v>
+        <v>19.55114439240927</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.69847532502991</v>
+        <v>20.81734394272313</v>
       </c>
       <c r="C19">
-        <v>22.35607511493213</v>
+        <v>12.18024278178293</v>
       </c>
       <c r="D19">
-        <v>3.845331426294894</v>
+        <v>6.724300283728669</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>38.75381176646203</v>
+        <v>37.09640866144062</v>
       </c>
       <c r="G19">
-        <v>2.040787932671058</v>
+        <v>3.672953157397675</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>23.4638543090934</v>
+        <v>28.94078724693198</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.642006052971823</v>
+        <v>10.50072243240735</v>
       </c>
       <c r="M19">
-        <v>15.49716206574183</v>
+        <v>17.26080745305894</v>
       </c>
       <c r="N19">
-        <v>12.05113403614272</v>
+        <v>19.55678813103265</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.30206924340795</v>
+        <v>20.99818264344842</v>
       </c>
       <c r="C20">
-        <v>22.823646911437</v>
+        <v>12.40951451246173</v>
       </c>
       <c r="D20">
-        <v>3.80595042955323</v>
+        <v>6.714523365097365</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.39911733315951</v>
+        <v>37.21306717109058</v>
       </c>
       <c r="G20">
-        <v>2.036502557241521</v>
+        <v>3.671598940303158</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>23.70219983965265</v>
+        <v>28.95297100409898</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.671293498628376</v>
+        <v>10.49736464548199</v>
       </c>
       <c r="M20">
-        <v>15.81921248490693</v>
+        <v>17.29785808020796</v>
       </c>
       <c r="N20">
-        <v>11.94659587309287</v>
+        <v>19.53152085147863</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.27620231423527</v>
+        <v>21.6006580661188</v>
       </c>
       <c r="C21">
-        <v>24.3556264631153</v>
+        <v>13.15024099354156</v>
       </c>
       <c r="D21">
-        <v>3.675015156163504</v>
+        <v>6.682592217842751</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.56801804196578</v>
+        <v>37.61581763623251</v>
       </c>
       <c r="G21">
-        <v>2.022152041086529</v>
+        <v>3.667189030926533</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.53107872262811</v>
+        <v>29.00247949716455</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.77436286603656</v>
+        <v>10.48779358811761</v>
       </c>
       <c r="M21">
-        <v>16.87187635088375</v>
+        <v>17.42608469478805</v>
       </c>
       <c r="N21">
-        <v>11.5977781412332</v>
+        <v>19.44889998565366</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.52788728468142</v>
+        <v>21.98987965684061</v>
       </c>
       <c r="C22">
-        <v>25.32937449885879</v>
+        <v>13.61238752520178</v>
       </c>
       <c r="D22">
-        <v>3.590537496530321</v>
+        <v>6.662405718266761</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>42.98700193706279</v>
+        <v>37.88673774641437</v>
       </c>
       <c r="G22">
-        <v>2.012783007773666</v>
+        <v>3.664410722764631</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.0947237825013</v>
+        <v>29.0412237769767</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.845341774982798</v>
+        <v>10.4828122932618</v>
       </c>
       <c r="M22">
-        <v>17.53885393728815</v>
+        <v>17.51258202819113</v>
       </c>
       <c r="N22">
-        <v>11.37146702521278</v>
+        <v>19.39659197908232</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.86325358493949</v>
+        <v>21.78260373699763</v>
       </c>
       <c r="C23">
-        <v>24.81207437019953</v>
+        <v>13.36773443345929</v>
       </c>
       <c r="D23">
-        <v>3.635518549609738</v>
+        <v>6.673117312323773</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.22944895734786</v>
+        <v>37.74146072442677</v>
       </c>
       <c r="G23">
-        <v>2.017784300308867</v>
+        <v>3.665884095330032</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.79181881084567</v>
+        <v>29.01996105867083</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.807118599245582</v>
+        <v>10.48535441155136</v>
       </c>
       <c r="M23">
-        <v>17.18473580428653</v>
+        <v>17.46617650322389</v>
       </c>
       <c r="N23">
-        <v>11.49210966326276</v>
+        <v>19.42435548311155</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.26912921897042</v>
+        <v>20.98826920804928</v>
       </c>
       <c r="C24">
-        <v>22.798120580062</v>
+        <v>12.39703558707667</v>
       </c>
       <c r="D24">
-        <v>3.808107971187121</v>
+        <v>6.715056808649461</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.36367889072194</v>
+        <v>37.20661937633463</v>
       </c>
       <c r="G24">
-        <v>2.036737648640301</v>
+        <v>3.671672778999622</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>23.68900775953344</v>
+        <v>28.95226968269746</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.669667944824448</v>
+        <v>10.49754260130654</v>
       </c>
       <c r="M24">
-        <v>15.80163971298805</v>
+        <v>17.29580912469143</v>
       </c>
       <c r="N24">
-        <v>11.95232713739417</v>
+        <v>19.53289984267533</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.2955376727027</v>
+        <v>20.11676399038944</v>
       </c>
       <c r="C25">
-        <v>20.49793473050974</v>
+        <v>11.25506653439012</v>
       </c>
       <c r="D25">
-        <v>3.998635944665144</v>
+        <v>6.763237001493562</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.27438457006858</v>
+        <v>36.66495827421989</v>
       </c>
       <c r="G25">
-        <v>2.057383624498054</v>
+        <v>3.678366322248318</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>22.58746153191612</v>
+        <v>28.90667404271576</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.536070918731715</v>
+        <v>10.51616505389817</v>
       </c>
       <c r="M25">
-        <v>14.44900587929237</v>
+        <v>17.12420890164664</v>
       </c>
       <c r="N25">
-        <v>12.45682757308245</v>
+        <v>19.65727009161293</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_140/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.46802728246466</v>
+        <v>23.94547452802965</v>
       </c>
       <c r="C2">
-        <v>10.33178790160724</v>
+        <v>18.68473398746298</v>
       </c>
       <c r="D2">
-        <v>6.801262432254918</v>
+        <v>4.142623839223127</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.29858851610221</v>
+        <v>34.0012737570172</v>
       </c>
       <c r="G2">
-        <v>3.683686426087322</v>
+        <v>2.072912755325635</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.89659979953459</v>
+        <v>21.84629121460526</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.534590121956</v>
+        <v>6.449434885795746</v>
       </c>
       <c r="M2">
-        <v>17.0089096745564</v>
+        <v>13.56796457628036</v>
       </c>
       <c r="N2">
-        <v>19.75516687194326</v>
+        <v>12.83649167998058</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.02707227529446</v>
+        <v>22.24860739433427</v>
       </c>
       <c r="C3">
-        <v>9.654239044558551</v>
+        <v>17.37715588529977</v>
       </c>
       <c r="D3">
-        <v>6.828634189735486</v>
+        <v>4.242605968312678</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.07150167452018</v>
+        <v>32.46473190619122</v>
       </c>
       <c r="G3">
-        <v>3.687538791747522</v>
+        <v>2.083706872887507</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.90435557035408</v>
+        <v>21.38507307750296</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.55001829051955</v>
+        <v>6.397632895311364</v>
       </c>
       <c r="M3">
-        <v>16.9379300108897</v>
+        <v>12.95974733818666</v>
       </c>
       <c r="N3">
-        <v>19.82548519306702</v>
+        <v>13.0995714403452</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75679067686542</v>
+        <v>21.17540990278166</v>
       </c>
       <c r="C4">
-        <v>9.212527677963715</v>
+        <v>16.53423448846431</v>
       </c>
       <c r="D4">
-        <v>6.84623398843175</v>
+        <v>4.305228099338638</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.94281166093097</v>
+        <v>31.525086014759</v>
       </c>
       <c r="G4">
-        <v>3.690026773236204</v>
+        <v>2.09048666236312</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.91627768399203</v>
+        <v>21.12133901020309</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.56094222412587</v>
+        <v>6.369106341831149</v>
       </c>
       <c r="M4">
-        <v>16.89796057029639</v>
+        <v>12.58176976600971</v>
       </c>
       <c r="N4">
-        <v>19.87062962820967</v>
+        <v>13.26417222974204</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64693959545636</v>
+        <v>20.7531964582317</v>
       </c>
       <c r="C5">
-        <v>9.026048898148471</v>
+        <v>16.18049876096784</v>
       </c>
       <c r="D5">
-        <v>6.853606024353639</v>
+        <v>4.331065326304214</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.89310959121362</v>
+        <v>31.14348935203061</v>
       </c>
       <c r="G5">
-        <v>3.691071595794352</v>
+        <v>2.09329031455923</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.92293102162643</v>
+        <v>21.01863635402236</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.56575870501186</v>
+        <v>6.358287570001562</v>
       </c>
       <c r="M5">
-        <v>16.88259257622351</v>
+        <v>12.42678133041543</v>
       </c>
       <c r="N5">
-        <v>19.8895226060759</v>
+        <v>13.3320514324512</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.62872162339313</v>
+        <v>20.68246680740162</v>
       </c>
       <c r="C6">
-        <v>8.994692517986167</v>
+        <v>16.12113827978871</v>
       </c>
       <c r="D6">
-        <v>6.854842236961596</v>
+        <v>4.335375053783539</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.88502313510788</v>
+        <v>31.08021689867237</v>
       </c>
       <c r="G6">
-        <v>3.691246960539444</v>
+        <v>2.093758396571535</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.92414403668136</v>
+        <v>21.00186713353002</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.56658051656872</v>
+        <v>6.3565392514856</v>
       </c>
       <c r="M6">
-        <v>16.88009660463203</v>
+        <v>12.40099350999613</v>
       </c>
       <c r="N6">
-        <v>19.89268977880816</v>
+        <v>13.34337213241463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.75530777688685</v>
+        <v>21.16975754097488</v>
       </c>
       <c r="C7">
-        <v>9.21003901009551</v>
+        <v>16.52950554784576</v>
       </c>
       <c r="D7">
-        <v>6.846332600007623</v>
+        <v>4.30557524929884</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.94213021926119</v>
+        <v>31.51993381040834</v>
       </c>
       <c r="G7">
-        <v>3.690040738609224</v>
+        <v>2.090524304807169</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.91636015353737</v>
+        <v>21.1199347734626</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.56100570343663</v>
+        <v>6.368957197399308</v>
       </c>
       <c r="M7">
-        <v>16.89774957330046</v>
+        <v>12.57968316302103</v>
       </c>
       <c r="N7">
-        <v>19.87088241466356</v>
+        <v>13.26508437973901</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.31599192322127</v>
+        <v>23.37120068640745</v>
       </c>
       <c r="C8">
-        <v>10.10349125469715</v>
+        <v>18.24209314361359</v>
       </c>
       <c r="D8">
-        <v>6.810535815624352</v>
+        <v>4.176846478900771</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.2180843399895</v>
+        <v>33.47088113735472</v>
       </c>
       <c r="G8">
-        <v>3.684989344391617</v>
+        <v>2.076604599477804</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.89778491488792</v>
+        <v>21.68315394395161</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.53960863145601</v>
+        <v>6.430881486698582</v>
       </c>
       <c r="M8">
-        <v>16.98369339749611</v>
+        <v>13.35928942620449</v>
       </c>
       <c r="N8">
-        <v>19.77900475549761</v>
+        <v>12.92658371506601</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41181981585261</v>
+        <v>27.32155297337613</v>
       </c>
       <c r="C9">
-        <v>11.65249448763168</v>
+        <v>21.29073412966252</v>
       </c>
       <c r="D9">
-        <v>6.746612600277017</v>
+        <v>3.933886573115618</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>36.84251350509209</v>
+        <v>37.31497095243419</v>
       </c>
       <c r="G9">
-        <v>3.676051086714601</v>
+        <v>2.05038758739962</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.91837531959694</v>
+        <v>22.94730871482534</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.50916009006898</v>
+        <v>6.579195113036141</v>
       </c>
       <c r="M9">
-        <v>17.18033400874974</v>
+        <v>14.8459369373052</v>
       </c>
       <c r="N9">
-        <v>19.61439719436638</v>
+        <v>12.28569828758398</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.20527104797931</v>
+        <v>29.98652679103794</v>
       </c>
       <c r="C10">
-        <v>12.66793702272968</v>
+        <v>23.35431337139527</v>
       </c>
       <c r="D10">
-        <v>6.703442866474825</v>
+        <v>3.760907949898471</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.34912003796833</v>
+        <v>40.14117703481376</v>
       </c>
       <c r="G10">
-        <v>3.670066452867681</v>
+        <v>2.031585432367334</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.96848282906466</v>
+        <v>23.98110157543447</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.4938038060541</v>
+        <v>6.705776640070106</v>
       </c>
       <c r="M10">
-        <v>17.34112217868768</v>
+        <v>16.18429192719645</v>
       </c>
       <c r="N10">
-        <v>19.50286736639504</v>
+        <v>11.82683202821544</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.56186811619664</v>
+        <v>31.15056198420785</v>
       </c>
       <c r="C11">
-        <v>13.10352495183613</v>
+        <v>24.25799284508907</v>
       </c>
       <c r="D11">
-        <v>6.684621503959236</v>
+        <v>3.683437493955645</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.58926392494389</v>
+        <v>41.42741395350907</v>
       </c>
       <c r="G11">
-        <v>3.667468723694017</v>
+        <v>2.023080797940492</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.99889903256187</v>
+        <v>24.47611305195445</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.48833950478884</v>
+        <v>6.767476297435056</v>
       </c>
       <c r="M11">
-        <v>17.41761677983182</v>
+        <v>16.80490860815095</v>
       </c>
       <c r="N11">
-        <v>19.45415512471348</v>
+        <v>11.62028150497684</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.69613646259215</v>
+        <v>31.58471808578163</v>
       </c>
       <c r="C12">
-        <v>13.2647034380032</v>
+        <v>24.59545220685165</v>
       </c>
       <c r="D12">
-        <v>6.677611355393316</v>
+        <v>3.654287137727224</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.68152774696821</v>
+        <v>41.91471187122499</v>
       </c>
       <c r="G12">
-        <v>3.666502841019712</v>
+        <v>2.019862434966424</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>29.01151300622528</v>
+        <v>24.66730520119087</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.48648887457203</v>
+        <v>6.791458709825108</v>
       </c>
       <c r="M12">
-        <v>17.44704732796485</v>
+        <v>17.03630409354134</v>
       </c>
       <c r="N12">
-        <v>19.43599878981914</v>
+        <v>11.54235201713225</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.66725565171053</v>
+        <v>31.49150480306492</v>
       </c>
       <c r="C13">
-        <v>13.23015810376931</v>
+        <v>24.52298019523611</v>
       </c>
       <c r="D13">
-        <v>6.679115914110503</v>
+        <v>3.660556649410636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.66159917022775</v>
+        <v>41.80974984258341</v>
       </c>
       <c r="G13">
-        <v>3.666710070325537</v>
+        <v>2.020555554718542</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>29.00874762801968</v>
+        <v>24.62595879238755</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.48687772286228</v>
+        <v>6.786265731280267</v>
       </c>
       <c r="M13">
-        <v>17.44068860781353</v>
+        <v>16.9866269717447</v>
       </c>
       <c r="N13">
-        <v>19.43989620226512</v>
+        <v>11.55912317989488</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.57293060893685</v>
+        <v>31.18641143915736</v>
       </c>
       <c r="C14">
-        <v>13.11686063559844</v>
+        <v>24.28584908858425</v>
       </c>
       <c r="D14">
-        <v>6.684042430100035</v>
+        <v>3.681035455703926</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.59682832935581</v>
+        <v>41.46749843005899</v>
       </c>
       <c r="G14">
-        <v>3.667388903427709</v>
+        <v>2.0228160079399</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.9999148301139</v>
+        <v>24.49176636241627</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.48818287284719</v>
+        <v>6.769436797578485</v>
       </c>
       <c r="M14">
-        <v>17.42002886254495</v>
+        <v>16.82401713793644</v>
       </c>
       <c r="N14">
-        <v>19.45265558709261</v>
+        <v>11.61386460001656</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.51504983302916</v>
+        <v>30.99867806046992</v>
       </c>
       <c r="C15">
-        <v>13.04697236137334</v>
+        <v>24.13999098339236</v>
       </c>
       <c r="D15">
-        <v>6.687075301976779</v>
+        <v>3.693604008080579</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.55732505628238</v>
+        <v>41.25789553951921</v>
       </c>
       <c r="G15">
-        <v>3.667807025797252</v>
+        <v>2.02420072781966</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.99464720013338</v>
+        <v>24.41006304151488</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.48901077442405</v>
+        <v>6.759209907199907</v>
       </c>
       <c r="M15">
-        <v>17.4074340059</v>
+        <v>16.72394802259248</v>
       </c>
       <c r="N15">
-        <v>19.46050880719386</v>
+        <v>11.64743186996222</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.18186674022035</v>
+        <v>29.90950795594966</v>
       </c>
       <c r="C16">
-        <v>12.63894185701067</v>
+        <v>23.29457494074105</v>
       </c>
       <c r="D16">
-        <v>6.704689291377819</v>
+        <v>3.76599608313983</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.33361537979275</v>
+        <v>40.05713979675313</v>
       </c>
       <c r="G16">
-        <v>3.670238720471294</v>
+        <v>2.032141808889691</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.96664845753676</v>
+        <v>23.94926420572897</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.49419150957799</v>
+        <v>6.701829431721719</v>
       </c>
       <c r="M16">
-        <v>17.33618897491421</v>
+        <v>16.14321715311216</v>
       </c>
       <c r="N16">
-        <v>19.50609145221951</v>
+        <v>11.84037216254642</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.97625200572912</v>
+        <v>29.22917648778932</v>
       </c>
       <c r="C17">
-        <v>12.38189482310079</v>
+        <v>22.76716135765137</v>
       </c>
       <c r="D17">
-        <v>6.715703838507177</v>
+        <v>3.810723557385843</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.19881137305419</v>
+        <v>39.32072996993641</v>
       </c>
       <c r="G17">
-        <v>3.671762347785747</v>
+        <v>2.037022599163376</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.95142466720072</v>
+        <v>23.67303570355336</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.49775925906116</v>
+        <v>6.667700528787646</v>
       </c>
       <c r="M17">
-        <v>17.29332810274559</v>
+        <v>15.78032543184821</v>
       </c>
       <c r="N17">
-        <v>19.53457240580034</v>
+        <v>11.95927450537594</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.85758649378352</v>
+        <v>28.83330359563881</v>
       </c>
       <c r="C18">
-        <v>12.23156760285278</v>
+        <v>22.46048796018827</v>
       </c>
       <c r="D18">
-        <v>6.72211601312569</v>
+        <v>3.836563239568242</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.12219154639579</v>
+        <v>38.89720561649014</v>
       </c>
       <c r="G18">
-        <v>3.672650442975233</v>
+        <v>2.039834794155065</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.94338584218347</v>
+        <v>23.5164716648662</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.49995454487652</v>
+        <v>6.648456302088679</v>
       </c>
       <c r="M18">
-        <v>17.26899224290236</v>
+        <v>15.56910898594384</v>
       </c>
       <c r="N18">
-        <v>19.55114439240927</v>
+        <v>12.0278716412274</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.81734394272313</v>
+        <v>28.69847532502997</v>
       </c>
       <c r="C19">
-        <v>12.18024278178293</v>
+        <v>22.35607511493245</v>
       </c>
       <c r="D19">
-        <v>6.724300283728669</v>
+        <v>3.845331426294964</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.09640866144062</v>
+        <v>38.75381176646201</v>
       </c>
       <c r="G19">
-        <v>3.672953157397675</v>
+        <v>2.040787932671058</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.94078724693198</v>
+        <v>23.46385430909336</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.50072243240735</v>
+        <v>6.642006052971825</v>
       </c>
       <c r="M19">
-        <v>17.26080745305894</v>
+        <v>15.49716206574188</v>
       </c>
       <c r="N19">
-        <v>19.55678813103265</v>
+        <v>12.05113403614263</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.99818264344842</v>
+        <v>29.30206924340798</v>
       </c>
       <c r="C20">
-        <v>12.40951451246173</v>
+        <v>22.82364691143695</v>
       </c>
       <c r="D20">
-        <v>6.714523365097365</v>
+        <v>3.805950429553351</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.21306717109058</v>
+        <v>39.39911733315945</v>
       </c>
       <c r="G20">
-        <v>3.671598940303158</v>
+        <v>2.036502557241518</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.95297100409898</v>
+        <v>23.70219983965263</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.49736464548199</v>
+        <v>6.67129349862842</v>
       </c>
       <c r="M20">
-        <v>17.29785808020796</v>
+        <v>15.81921248490692</v>
       </c>
       <c r="N20">
-        <v>19.53152085147863</v>
+        <v>11.94659587309283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.6006580661188</v>
+        <v>31.27620231423533</v>
       </c>
       <c r="C21">
-        <v>13.15024099354156</v>
+        <v>24.3556264631153</v>
       </c>
       <c r="D21">
-        <v>6.682592217842751</v>
+        <v>3.675015156163695</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.61581763623251</v>
+        <v>41.56801804196577</v>
       </c>
       <c r="G21">
-        <v>3.667189030926533</v>
+        <v>2.022152041086525</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>29.00247949716455</v>
+        <v>24.53107872262808</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.48779358811761</v>
+        <v>6.774362866036547</v>
       </c>
       <c r="M21">
-        <v>17.42608469478805</v>
+        <v>16.87187635088377</v>
       </c>
       <c r="N21">
-        <v>19.44889998565366</v>
+        <v>11.59777814123316</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.98987965684061</v>
+        <v>32.52788728468148</v>
       </c>
       <c r="C22">
-        <v>13.61238752520178</v>
+        <v>25.32937449885886</v>
       </c>
       <c r="D22">
-        <v>6.662405718266761</v>
+        <v>3.590537496530258</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.88673774641437</v>
+        <v>42.98700193706292</v>
       </c>
       <c r="G22">
-        <v>3.664410722764631</v>
+        <v>2.012783007773667</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.0412237769767</v>
+        <v>25.09472378250141</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.4828122932618</v>
+        <v>6.845341774982836</v>
       </c>
       <c r="M22">
-        <v>17.51258202819113</v>
+        <v>17.53885393728814</v>
       </c>
       <c r="N22">
-        <v>19.39659197908232</v>
+        <v>11.37146702521283</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.78260373699763</v>
+        <v>31.86325358493946</v>
       </c>
       <c r="C23">
-        <v>13.36773443345929</v>
+        <v>24.81207437019944</v>
       </c>
       <c r="D23">
-        <v>6.673117312323773</v>
+        <v>3.63551854960985</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.74146072442677</v>
+        <v>42.22944895734786</v>
       </c>
       <c r="G23">
-        <v>3.665884095330032</v>
+        <v>2.017784300308876</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>29.01996105867083</v>
+        <v>24.7918188108457</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.48535441155136</v>
+        <v>6.80711859924561</v>
       </c>
       <c r="M23">
-        <v>17.46617650322389</v>
+        <v>17.18473580428652</v>
       </c>
       <c r="N23">
-        <v>19.42435548311155</v>
+        <v>11.49210966326286</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.98826920804928</v>
+        <v>29.26912921897047</v>
       </c>
       <c r="C24">
-        <v>12.39703558707667</v>
+        <v>22.79812058006225</v>
       </c>
       <c r="D24">
-        <v>6.715056808649461</v>
+        <v>3.808107971187134</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.20661937633463</v>
+        <v>39.36367889072197</v>
       </c>
       <c r="G24">
-        <v>3.671672778999622</v>
+        <v>2.036737648640432</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.95226968269746</v>
+        <v>23.68900775953345</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49754260130654</v>
+        <v>6.669667944824386</v>
       </c>
       <c r="M24">
-        <v>17.29580912469143</v>
+        <v>15.8016397129881</v>
       </c>
       <c r="N24">
-        <v>19.53289984267533</v>
+        <v>11.95232713739418</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.11676399038944</v>
+        <v>26.29553767270272</v>
       </c>
       <c r="C25">
-        <v>11.25506653439012</v>
+        <v>20.49793473050967</v>
       </c>
       <c r="D25">
-        <v>6.763237001493562</v>
+        <v>3.998635944665282</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.66495827421989</v>
+        <v>36.27438457006865</v>
       </c>
       <c r="G25">
-        <v>3.678366322248318</v>
+        <v>2.05738362449779</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.90667404271576</v>
+        <v>22.58746153191617</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.51616505389817</v>
+        <v>6.536070918731764</v>
       </c>
       <c r="M25">
-        <v>17.12420890164664</v>
+        <v>14.44900587929239</v>
       </c>
       <c r="N25">
-        <v>19.65727009161293</v>
+        <v>12.45682757308247</v>
       </c>
       <c r="O25">
         <v>0</v>
